--- a/Heuristicas/Resultado_Ensemble_smape_cenario_34.xlsx
+++ b/Heuristicas/Resultado_Ensemble_smape_cenario_34.xlsx
@@ -1,15 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amaral\Documents\Faculdade\tcc\Heuristicas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3DDC824-14F6-422F-9327-A4FC2684A678}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -250,8 +266,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,11 +330,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -360,7 +384,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -392,9 +416,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -426,6 +468,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -601,14 +661,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E73"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -625,41 +687,41 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.018</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="C2">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="D2">
-        <v>35.242</v>
+        <v>35.241999999999997</v>
       </c>
       <c r="E2">
-        <v>0.514</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.51400000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3">
-        <v>0.043</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="C3">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="D3">
-        <v>0.707</v>
+        <v>0.70699999999999996</v>
       </c>
       <c r="E3">
         <v>0.123</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -667,7 +729,7 @@
         <v>0.01</v>
       </c>
       <c r="C4">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="D4">
         <v>6.09</v>
@@ -676,15 +738,15 @@
         <v>0.622</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0.046</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="C5">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="D5">
         <v>23.872</v>
@@ -693,12 +755,12 @@
         <v>3.512</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.094</v>
+        <v>9.4E-2</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -707,49 +769,49 @@
         <v>107.157</v>
       </c>
       <c r="E6">
-        <v>0.358</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.35799999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.053</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="C7">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="D7">
-        <v>91.435</v>
+        <v>91.435000000000002</v>
       </c>
       <c r="E7">
         <v>1.002</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C8">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D8">
         <v>216.41</v>
       </c>
       <c r="E8">
-        <v>4.503</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>4.5030000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="B9">
-        <v>0.089</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -761,41 +823,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
       <c r="B10">
-        <v>0.167</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="C10">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="D10">
-        <v>184.808</v>
+        <v>184.80799999999999</v>
       </c>
       <c r="E10">
-        <v>0.235</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.23499999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
       <c r="B11">
-        <v>0.238</v>
+        <v>0.23799999999999999</v>
       </c>
       <c r="C11">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="D11">
-        <v>200.379</v>
+        <v>200.37899999999999</v>
       </c>
       <c r="E11">
-        <v>0.514</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.51400000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -803,41 +865,41 @@
         <v>0.122</v>
       </c>
       <c r="C12">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="D12">
         <v>211.815</v>
       </c>
       <c r="E12">
-        <v>5.411</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>5.4109999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
       <c r="B13">
-        <v>0.013</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>11.399</v>
+        <v>11.398999999999999</v>
       </c>
       <c r="E13">
-        <v>0.291</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.29099999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
       <c r="B14">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C14">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D14">
         <v>125.217</v>
@@ -846,32 +908,32 @@
         <v>5.532</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
       <c r="B15">
-        <v>0.227</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="C15">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D15">
-        <v>45.995</v>
+        <v>45.994999999999997</v>
       </c>
       <c r="E15">
-        <v>0.325</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.32500000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
       <c r="B16">
-        <v>0.143</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="C16">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="D16">
         <v>27.683</v>
@@ -880,109 +942,109 @@
         <v>1.395</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
       <c r="B17">
-        <v>0.103</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="C17">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D17">
-        <v>33.228</v>
+        <v>33.228000000000002</v>
       </c>
       <c r="E17">
-        <v>0.857</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>0.85699999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0.097</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="C18">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="D18">
-        <v>23.876</v>
+        <v>23.876000000000001</v>
       </c>
       <c r="E18">
-        <v>0.168</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>0.16800000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
       <c r="B19">
-        <v>0.062</v>
+        <v>6.2E-2</v>
       </c>
       <c r="C19">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="D19">
-        <v>80.342</v>
+        <v>80.341999999999999</v>
       </c>
       <c r="E19">
         <v>0.25</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
       <c r="B20">
-        <v>0.044</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>43.179</v>
+        <v>43.179000000000002</v>
       </c>
       <c r="E20">
-        <v>0.428</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.42799999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
       </c>
       <c r="B21">
-        <v>0.102</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="C21">
-        <v>0.015</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D21">
-        <v>106.269</v>
+        <v>106.26900000000001</v>
       </c>
       <c r="E21">
         <v>15.083</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
       <c r="B22">
-        <v>0.089</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="C22">
-        <v>0.008999999999999999</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="D22">
-        <v>193.693</v>
+        <v>193.69300000000001</v>
       </c>
       <c r="E22">
-        <v>19.062</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>19.062000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -990,33 +1052,33 @@
         <v>0.158</v>
       </c>
       <c r="C23">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="D23">
         <v>160.398</v>
       </c>
       <c r="E23">
-        <v>5.026</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>5.0259999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
       <c r="B24">
-        <v>0.051</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="C24">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="D24">
-        <v>42.563</v>
+        <v>42.563000000000002</v>
       </c>
       <c r="E24">
-        <v>0.383</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.38300000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -1024,7 +1086,7 @@
         <v>0.24</v>
       </c>
       <c r="C25">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="D25">
         <v>123.357</v>
@@ -1033,15 +1095,15 @@
         <v>3.97</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>29</v>
       </c>
       <c r="B26">
-        <v>0.043</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="C26">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D26">
         <v>18.38</v>
@@ -1050,63 +1112,63 @@
         <v>1.159</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>30</v>
       </c>
       <c r="B27">
-        <v>0.036</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="C27">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="D27">
-        <v>39.902</v>
+        <v>39.902000000000001</v>
       </c>
       <c r="E27">
         <v>1.212</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>31</v>
       </c>
       <c r="B28">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C28">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D28">
-        <v>75.19799999999999</v>
+        <v>75.197999999999993</v>
       </c>
       <c r="E28">
         <v>1.5</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
       </c>
       <c r="B29">
-        <v>0.196</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="C29">
-        <v>0.027</v>
+        <v>2.7E-2</v>
       </c>
       <c r="D29">
         <v>245.494</v>
       </c>
       <c r="E29">
-        <v>36.394</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>36.393999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>33</v>
       </c>
       <c r="B30">
-        <v>0.052</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1115,27 +1177,27 @@
         <v>24.29</v>
       </c>
       <c r="E30">
-        <v>0.451</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.45100000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>34</v>
       </c>
       <c r="B31">
-        <v>0.055</v>
+        <v>5.5E-2</v>
       </c>
       <c r="C31">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="D31">
-        <v>43.076</v>
+        <v>43.076000000000001</v>
       </c>
       <c r="E31">
-        <v>0.533</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.53300000000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -1143,7 +1205,7 @@
         <v>0.159</v>
       </c>
       <c r="C32">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D32">
         <v>362.548</v>
@@ -1152,7 +1214,7 @@
         <v>10.209</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -1160,16 +1222,16 @@
         <v>0.08</v>
       </c>
       <c r="C33">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="D33">
-        <v>35.825</v>
+        <v>35.825000000000003</v>
       </c>
       <c r="E33">
-        <v>0.166</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.16600000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -1177,33 +1239,33 @@
         <v>0.24</v>
       </c>
       <c r="C34">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D34">
-        <v>415.439</v>
+        <v>415.43900000000002</v>
       </c>
       <c r="E34">
-        <v>8.242000000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>8.2420000000000009</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>38</v>
       </c>
       <c r="B35">
-        <v>0.074</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="C35">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D35">
-        <v>81.95399999999999</v>
+        <v>81.953999999999994</v>
       </c>
       <c r="E35">
         <v>2.39</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -1211,16 +1273,16 @@
         <v>0.111</v>
       </c>
       <c r="C36">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D36">
-        <v>168.074</v>
+        <v>168.07400000000001</v>
       </c>
       <c r="E36">
-        <v>4.521</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>4.5209999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -1228,24 +1290,24 @@
         <v>0.158</v>
       </c>
       <c r="C37">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D37">
-        <v>9.237</v>
+        <v>9.2370000000000001</v>
       </c>
       <c r="E37">
-        <v>0.149</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>0.14899999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>41</v>
       </c>
       <c r="B38">
-        <v>0.262</v>
+        <v>0.26200000000000001</v>
       </c>
       <c r="C38">
-        <v>0.015</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D38">
         <v>304.238</v>
@@ -1254,41 +1316,41 @@
         <v>24.895</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>42</v>
       </c>
       <c r="B39">
-        <v>0.065</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39">
-        <v>37.416</v>
+        <v>37.415999999999997</v>
       </c>
       <c r="E39">
         <v>0.188</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>43</v>
       </c>
       <c r="B40">
-        <v>0.047</v>
+        <v>4.7E-2</v>
       </c>
       <c r="C40">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D40">
-        <v>6.238</v>
+        <v>6.2380000000000004</v>
       </c>
       <c r="E40">
         <v>0.23</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -1296,33 +1358,33 @@
         <v>0.253</v>
       </c>
       <c r="C41">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="D41">
-        <v>412.993</v>
+        <v>412.99299999999999</v>
       </c>
       <c r="E41">
-        <v>10.191</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>10.191000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>45</v>
       </c>
       <c r="B42">
-        <v>0.196</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="C42">
-        <v>0.013</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="D42">
-        <v>278.917</v>
+        <v>278.91699999999997</v>
       </c>
       <c r="E42">
         <v>17.012</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -1330,16 +1392,16 @@
         <v>0.11</v>
       </c>
       <c r="C43">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D43">
-        <v>66.911</v>
+        <v>66.911000000000001</v>
       </c>
       <c r="E43">
-        <v>2.582</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>2.5819999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -1347,33 +1409,33 @@
         <v>0.124</v>
       </c>
       <c r="C44">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="D44">
-        <v>323.997</v>
+        <v>323.99700000000001</v>
       </c>
       <c r="E44">
-        <v>0.676</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.67600000000000005</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>48</v>
       </c>
       <c r="B45">
-        <v>0.057</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="C45">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D45">
-        <v>0.056</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="E45">
-        <v>0.003</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -1381,92 +1443,92 @@
         <v>0.161</v>
       </c>
       <c r="C46">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="D46">
         <v>105.748</v>
       </c>
       <c r="E46">
-        <v>0.349</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.34899999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>50</v>
       </c>
       <c r="B47">
-        <v>0.022</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="C47">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D47">
-        <v>0.023</v>
+        <v>2.3E-2</v>
       </c>
       <c r="E47">
-        <v>0.003</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>51</v>
       </c>
       <c r="B48">
-        <v>0.066</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="C48">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D48">
-        <v>300725.906</v>
+        <v>300725.90600000002</v>
       </c>
       <c r="E48">
         <v>21062.48</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>52</v>
       </c>
       <c r="B49">
-        <v>0.201</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="C49">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D49">
-        <v>571623.447</v>
+        <v>571623.44700000004</v>
       </c>
       <c r="E49">
-        <v>11794.595</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>11794.594999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>53</v>
       </c>
       <c r="B50">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
       <c r="D50">
-        <v>68.158</v>
+        <v>68.158000000000001</v>
       </c>
       <c r="E50">
         <v>2.573</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>54</v>
       </c>
       <c r="B51">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C51">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="D51">
         <v>9214537.398</v>
@@ -1475,58 +1537,58 @@
         <v>1362038.35</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>55</v>
       </c>
       <c r="B52">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="D52">
-        <v>10597702.641</v>
+        <v>10597702.641000001</v>
       </c>
       <c r="E52">
-        <v>79938.955</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>79938.955000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>56</v>
       </c>
       <c r="B53">
-        <v>0.259</v>
+        <v>0.25900000000000001</v>
       </c>
       <c r="C53">
         <v>0.01</v>
       </c>
       <c r="D53">
-        <v>47.915</v>
+        <v>47.914999999999999</v>
       </c>
       <c r="E53">
-        <v>0.226</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.22600000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>57</v>
       </c>
       <c r="B54">
-        <v>0.694</v>
+        <v>0.69399999999999995</v>
       </c>
       <c r="C54">
-        <v>0.089</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="D54">
-        <v>5313.562</v>
+        <v>5313.5619999999999</v>
       </c>
       <c r="E54">
         <v>1233.585</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>58</v>
       </c>
@@ -1537,120 +1599,120 @@
         <v>0.05</v>
       </c>
       <c r="D55">
-        <v>105.757</v>
+        <v>105.75700000000001</v>
       </c>
       <c r="E55">
         <v>20.61</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>59</v>
       </c>
       <c r="B56">
-        <v>0.08799999999999999</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="C56">
-        <v>0.008999999999999999</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="D56">
-        <v>3459.632</v>
+        <v>3459.6320000000001</v>
       </c>
       <c r="E56">
-        <v>252.692</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>252.69200000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>60</v>
       </c>
       <c r="B57">
-        <v>0.058</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="C57">
-        <v>0.015</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D57">
         <v>51.442</v>
       </c>
       <c r="E57">
-        <v>11.486</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>11.486000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>61</v>
       </c>
       <c r="B58">
-        <v>0.198</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="C58">
-        <v>0.015</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D58">
-        <v>14466.994</v>
+        <v>14466.994000000001</v>
       </c>
       <c r="E58">
-        <v>882.068</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>882.06799999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>62</v>
       </c>
       <c r="B59">
-        <v>0.396</v>
+        <v>0.39600000000000002</v>
       </c>
       <c r="C59">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="D59">
-        <v>1465.619</v>
+        <v>1465.6189999999999</v>
       </c>
       <c r="E59">
-        <v>83.389</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>83.388999999999996</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>63</v>
       </c>
       <c r="B60">
-        <v>0.429</v>
+        <v>0.42899999999999999</v>
       </c>
       <c r="C60">
-        <v>0.018</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="D60">
         <v>122.395</v>
       </c>
       <c r="E60">
-        <v>7.373</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>7.3730000000000002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>64</v>
       </c>
       <c r="B61">
-        <v>0.422</v>
+        <v>0.42199999999999999</v>
       </c>
       <c r="C61">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D61">
-        <v>163.326</v>
+        <v>163.32599999999999</v>
       </c>
       <c r="E61">
-        <v>4.249</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>4.2489999999999997</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>65</v>
       </c>
       <c r="B62">
-        <v>0.341</v>
+        <v>0.34100000000000003</v>
       </c>
       <c r="C62">
         <v>0.04</v>
@@ -1662,24 +1724,24 @@
         <v>12.792</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>66</v>
       </c>
       <c r="B63">
-        <v>0.08799999999999999</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="C63">
-        <v>0.024</v>
+        <v>2.4E-2</v>
       </c>
       <c r="D63">
-        <v>1139.9</v>
+        <v>1139.9000000000001</v>
       </c>
       <c r="E63">
         <v>264.072</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>67</v>
       </c>
@@ -1687,16 +1749,16 @@
         <v>0.185</v>
       </c>
       <c r="C64">
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="D64">
-        <v>7926.359</v>
+        <v>7926.3590000000004</v>
       </c>
       <c r="E64">
-        <v>494.186</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>494.18599999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>68</v>
       </c>
@@ -1710,61 +1772,61 @@
         <v>17632.535</v>
       </c>
       <c r="E65">
-        <v>0.268</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.26800000000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>69</v>
       </c>
       <c r="B66">
-        <v>0.227</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="C66">
-        <v>0.059</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="D66">
-        <v>4558.391</v>
+        <v>4558.3909999999996</v>
       </c>
       <c r="E66">
         <v>1038.876</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>70</v>
       </c>
       <c r="B67">
-        <v>0.242</v>
+        <v>0.24199999999999999</v>
       </c>
       <c r="C67">
-        <v>0.047</v>
+        <v>4.7E-2</v>
       </c>
       <c r="D67">
-        <v>4897.717</v>
+        <v>4897.7169999999996</v>
       </c>
       <c r="E67">
-        <v>800.324</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>800.32399999999996</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>71</v>
       </c>
       <c r="B68">
-        <v>0.017</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="C68">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="D68">
         <v>12.182</v>
       </c>
       <c r="E68">
-        <v>0.586</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.58599999999999997</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>72</v>
       </c>
@@ -1772,81 +1834,87 @@
         <v>0.11</v>
       </c>
       <c r="C69">
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="D69">
-        <v>11570658.529</v>
+        <v>11570658.528999999</v>
       </c>
       <c r="E69">
         <v>1329525.943</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>73</v>
       </c>
       <c r="B70">
-        <v>0.258</v>
+        <v>0.25800000000000001</v>
       </c>
       <c r="C70">
-        <v>0.025</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D70">
-        <v>1786162.555</v>
+        <v>1786162.5549999999</v>
       </c>
       <c r="E70">
-        <v>174443.827</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>174443.82699999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>74</v>
       </c>
       <c r="B71">
-        <v>0.267</v>
+        <v>0.26700000000000002</v>
       </c>
       <c r="C71">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="D71">
-        <v>5291962.854</v>
+        <v>5291962.8540000003</v>
       </c>
       <c r="E71">
         <v>22171.323</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>75</v>
       </c>
       <c r="B72">
-        <v>0.022</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="C72">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D72">
         <v>12.504</v>
       </c>
       <c r="E72">
-        <v>2.461</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>2.4609999999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>76</v>
       </c>
       <c r="B73">
-        <v>0.045</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="C73">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D73">
-        <v>25.304</v>
+        <v>25.303999999999998</v>
       </c>
       <c r="E73">
-        <v>2.147</v>
+        <v>2.1469999999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <f>AVERAGE(B2:B73)</f>
+        <v>0.14351388888888886</v>
       </c>
     </row>
   </sheetData>
